--- a/documenten/kerntaak_1/1.3/use case/use_cases_template_account_verwijderen.xlsx
+++ b/documenten/kerntaak_1/1.3/use case/use_cases_template_account_verwijderen.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\did-you-had-a-good-day\documenten\kerntaak_1\1.3\use case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\PvB\exam\documenten\kerntaak_1\1.3\use case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{131E1EBA-16AB-4FF0-841B-904CB277E85E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12936" windowHeight="5796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -60,25 +59,25 @@
     <t>de verzonden data moet binnen 5 sec in de database staan</t>
   </si>
   <si>
-    <t>ingelogd op de dashboard, op de pagina account beheer</t>
-  </si>
-  <si>
     <t>account verwijderen</t>
   </si>
   <si>
-    <t>op de pagina zie je een overzicht met de accounts die bestaan. Naast de naam heb je een knop om deze accounts te kunnen verwijderen. Als je er op drukt zie je een warschouwing die vraagt of je zeker bent dat je het account wilt verwijderen met 2 opties.</t>
-  </si>
-  <si>
     <t>geen verbinding met de database.</t>
   </si>
   <si>
-    <t>je krijgt een melding dat de account goed is verwijderd. Het account zou ook uit de overzicht verwijdert zijn.</t>
+    <t>ingelogd op het dashboard, op de pagina account beheer</t>
+  </si>
+  <si>
+    <t>op de pagina zie je een overzicht met de accounts die bestaan. Naast de naam heb je een knop om deze accounts te kunnen verwijderen. Als je er op drukt zie je een waarschuwing die vraagt of je zeker bent dat je het account wilt verwijderen met 2 opties.</t>
+  </si>
+  <si>
+    <t>je krijgt een melding wanneer het account goed is verwijderd. Het account zou ook uit het overzicht verwijderd zijn.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,28 +428,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -458,7 +457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -466,31 +465,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -498,7 +497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
